--- a/biology/Botanique/Connaraceae/Connaraceae.xlsx
+++ b/biology/Botanique/Connaraceae/Connaraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Connaracées regroupe des plantes dicotylédones ; elle comprend 300 à 350 espèces réparties en 3 à 12 genres. 
 Ce sont des arbres, des arbustes ou le plus souvent des lianes des zones tropicales.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Connarus dérivé du grec κόνναρος / konnaros, nom désignant un arbuste épineux à feuilles persistantes (probablement Paliurus spina-christi, Rhamnaceae)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Connarus dérivé du grec κόνναρος / konnaros, nom désignant un arbuste épineux à feuilles persistantes (probablement Paliurus spina-christi, Rhamnaceae).
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 mai 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 mai 2010) :
 genre Agelaea
 genre Byrsocarpus
 genre Connarus (en)
 genre Rourea
-Selon Angiosperm Phylogeny Website                        (13 mai 2010)[3] et DELTA Angio           (13 mai 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (13 mai 2010) et DELTA Angio           (13 mai 2010) :
 genre Agelaea
 genre Burttia
 genre Cnestidium
@@ -565,7 +581,7 @@
 genre Pseudoconnarus
 genre Rourea
 genre Vismianthus
-Selon ITIS      (13 mai 2010)[5] :
+Selon ITIS      (13 mai 2010) :
 genre Connarus (en) L.
 genre Rourea Aubl.</t>
         </is>
@@ -595,9 +611,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 mai 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 mai 2010) :
 genre Agelaea
 Agelaea trinervis
 genre Byrsocarpus
